--- a/data/georgia_census/qvemo-qartli/dmanisi/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/dmanisi/healthcare_staff.xlsx
@@ -1361,13 +1361,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26E9C851-B023-4DD6-B3C0-C65C9E9564D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE3EE7F-3E95-4F38-946B-8BB6C9A32728}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7FDDB5-83D3-4378-9532-B33CC7570C56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D791922-E544-4306-9093-B5D37A95D532}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC6ACFEB-B7E6-49AC-974F-6B7B5666CC93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1659066-EB31-4199-ABAA-608AD748A86B}"/>
 </file>